--- a/biology/Zoologie/Eirenis/Eirenis.xlsx
+++ b/biology/Zoologie/Eirenis/Eirenis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eirenis est un genre de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eirenis est un genre de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 20 espèces de ce genre se rencontrent de l'Europe du Sud (Grèce, Bulgarie) jusqu'au sous-continent indien (Pakistan) en passant par l'Arabie et le Nord-Est de l'Afrique (Égypte, Soudan)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 20 espèces de ce genre se rencontrent de l'Europe du Sud (Grèce, Bulgarie) jusqu'au sous-continent indien (Pakistan) en passant par l'Arabie et le Nord-Est de l'Afrique (Égypte, Soudan).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (23 décembre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (23 décembre 2015) :
 Eirenis africanus (Boulenger, 1914)
 Eirenis aurolineatus (Venzmer, 1919)
 Eirenis barani Schmidtler, 1988
@@ -593,9 +609,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Pseudocyclophis[3] a été placé en synonymie avec Eirenis par Nagy, Schmidtler, Joger et Wink en 2003[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Pseudocyclophis a été placé en synonymie avec Eirenis par Nagy, Schmidtler, Joger et Wink en 2003.
 </t>
         </is>
       </c>
@@ -624,9 +642,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre, Eirenis, fait référence à Eiréné, fille de Zeus et Thémis, qui incarne la Paix[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre, Eirenis, fait référence à Eiréné, fille de Zeus et Thémis, qui incarne la Paix.
 </t>
         </is>
       </c>
@@ -655,7 +675,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jan, 1862 : Enumerazione sistematica degli ofidi appartenenti al gruppo Calamaridae. Archivio per la zoologia, l'anatomia e la fisiologia, vol. 2, p. 213-330 (texte intégral).</t>
         </is>
